--- a/test/helper/mating_data/mating_data.xlsx
+++ b/test/helper/mating_data/mating_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84641C1-CCFA-4F16-A776-BC5C242D7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84410DE9-168A-4E2F-A3B7-71837A2798FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="配種資料" sheetId="2" r:id="rId1"/>
-    <sheet name="基本資料" sheetId="1" r:id="rId2"/>
+    <sheet name="發情資料" sheetId="4" r:id="rId1"/>
+    <sheet name="配種資料" sheetId="2" r:id="rId2"/>
+    <sheet name="基本資料" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,309 +33,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="207">
+  <si>
+    <t>出生年品種耳號</t>
+  </si>
+  <si>
+    <t>胎次</t>
+  </si>
+  <si>
+    <t>發情日期</t>
+  </si>
+  <si>
+    <t>發情時間</t>
+  </si>
+  <si>
+    <t>胎號</t>
+  </si>
+  <si>
+    <t>18D1714-3</t>
+  </si>
+  <si>
+    <t>20L1722-15</t>
+  </si>
+  <si>
+    <t>22L1099-11</t>
+  </si>
+  <si>
+    <t>17L1315-10</t>
+  </si>
+  <si>
+    <t>18D1501-2</t>
+  </si>
+  <si>
+    <t>18Y1735-6</t>
+  </si>
+  <si>
+    <t>15Y1169-3</t>
+  </si>
+  <si>
+    <t>18L1813-15</t>
+  </si>
+  <si>
+    <t>20L1665-14</t>
+  </si>
+  <si>
+    <t>19L1292-15</t>
+  </si>
+  <si>
+    <t>23L1286-4</t>
+  </si>
+  <si>
+    <t>20L1580-5</t>
+  </si>
+  <si>
+    <t>22D1440-12</t>
+  </si>
+  <si>
+    <t>21L1512-9</t>
+  </si>
+  <si>
+    <t>22D1284-7</t>
+  </si>
+  <si>
+    <t>15Y1417-7</t>
+  </si>
+  <si>
+    <t>23L1910-17</t>
+  </si>
+  <si>
+    <t>16L1961-5</t>
+  </si>
+  <si>
+    <t>18D1565-10</t>
+  </si>
+  <si>
+    <t>20L1966-4</t>
+  </si>
+  <si>
+    <t>22Y1106-1</t>
+  </si>
+  <si>
+    <t>20L1782-4</t>
+  </si>
+  <si>
+    <t>24L1547-2</t>
+  </si>
+  <si>
+    <t>24D1947-13</t>
+  </si>
+  <si>
+    <t>21D1472-1</t>
+  </si>
+  <si>
+    <t>23D1122-4</t>
+  </si>
+  <si>
+    <t>19D1457-11</t>
+  </si>
+  <si>
+    <t>16D1988-11</t>
+  </si>
+  <si>
+    <t>19Y1792-14</t>
+  </si>
+  <si>
+    <t>17D1288-6</t>
+  </si>
+  <si>
+    <t>20Y1171-6</t>
+  </si>
+  <si>
+    <t>與配公豬</t>
+  </si>
+  <si>
+    <t>配種日期</t>
+  </si>
+  <si>
+    <t>週次</t>
+  </si>
+  <si>
+    <t>配種時間</t>
+  </si>
+  <si>
+    <t>配種次數</t>
+  </si>
+  <si>
+    <t>豬隻特徵</t>
+  </si>
+  <si>
+    <t>事發日期</t>
+  </si>
+  <si>
+    <t>事發狀況</t>
+  </si>
+  <si>
+    <t>生日年品種耳號胎次</t>
+  </si>
+  <si>
+    <t>隨機耳號</t>
+  </si>
+  <si>
+    <t>隨機發情日</t>
+  </si>
+  <si>
+    <t>隨機公豬</t>
+  </si>
+  <si>
+    <t>15Y1069-18</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17Y1366-11</t>
+  </si>
+  <si>
+    <t>18Y1547-6</t>
+  </si>
+  <si>
+    <t>18L1260-11</t>
+  </si>
+  <si>
+    <t>15D1202-8</t>
+  </si>
+  <si>
+    <t>16L1247-6</t>
+  </si>
+  <si>
+    <t>16Y1542-9</t>
+  </si>
+  <si>
+    <t>16L1459-7</t>
+  </si>
+  <si>
+    <t>15L1800-5</t>
+  </si>
+  <si>
+    <t>18L1621-18</t>
+  </si>
+  <si>
+    <t>18D1074-4</t>
+  </si>
+  <si>
+    <t>16Y1377-3</t>
+  </si>
+  <si>
+    <t>16Y1064-16</t>
+  </si>
+  <si>
+    <t>17Y1475-19</t>
+  </si>
+  <si>
+    <t>17Y1862-10</t>
+  </si>
+  <si>
+    <t>19L1250-18</t>
+  </si>
+  <si>
+    <t>17D1322-14</t>
+  </si>
+  <si>
+    <t>21D1416-5</t>
+  </si>
+  <si>
+    <t>21Y1703-14</t>
+  </si>
+  <si>
+    <t>22Y1781-14</t>
+  </si>
+  <si>
+    <t>19Y1696-9</t>
+  </si>
+  <si>
+    <t>16L1081-16</t>
+  </si>
+  <si>
+    <t>19D1872-2</t>
+  </si>
+  <si>
+    <t>15D1239-8</t>
+  </si>
+  <si>
+    <t>18D1725-1</t>
+  </si>
+  <si>
+    <t>15Y1986-16</t>
+  </si>
+  <si>
+    <t>21Y1185-1</t>
+  </si>
+  <si>
+    <t>17L1441-17</t>
+  </si>
+  <si>
+    <t>第二次配種</t>
+  </si>
+  <si>
+    <t>空配種時間</t>
+  </si>
+  <si>
+    <t>空母豬耳號</t>
+  </si>
+  <si>
+    <t>空公豬耳號</t>
+  </si>
+  <si>
+    <t>空配種日期</t>
+  </si>
+  <si>
+    <t>18Y154766</t>
+  </si>
+  <si>
+    <t>無公豬資料</t>
+  </si>
+  <si>
+    <t>23D1081-16</t>
+  </si>
+  <si>
+    <t>公豬生日晚於配種日期</t>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>品種</t>
+  </si>
+  <si>
+    <t>耳號</t>
+  </si>
+  <si>
+    <t>標記</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>父畜</t>
+  </si>
+  <si>
+    <t>母畜</t>
+  </si>
+  <si>
+    <t>登錄號</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>狀態日期</t>
+  </si>
+  <si>
+    <t>狀態</t>
+  </si>
+  <si>
+    <t>標記日期</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>離場日期</t>
+  </si>
+  <si>
+    <t>離場原因</t>
+  </si>
   <si>
     <t>生日年品種耳號</t>
-  </si>
-  <si>
-    <t>胎次</t>
-  </si>
-  <si>
-    <t>與配公豬</t>
-  </si>
-  <si>
-    <t>配種日期</t>
-  </si>
-  <si>
-    <t>週次</t>
-  </si>
-  <si>
-    <t>配種時間</t>
-  </si>
-  <si>
-    <t>配種次數</t>
-  </si>
-  <si>
-    <t>豬隻特徵</t>
-  </si>
-  <si>
-    <t>21天測孕</t>
-  </si>
-  <si>
-    <t>60天測孕</t>
-  </si>
-  <si>
-    <t>事發日期</t>
-  </si>
-  <si>
-    <t>事發狀況</t>
-  </si>
-  <si>
-    <t>生日年品種耳號胎次</t>
-  </si>
-  <si>
-    <t>隨機耳號</t>
-  </si>
-  <si>
-    <t>隨機發情日</t>
-  </si>
-  <si>
-    <t>隨機公豬</t>
-  </si>
-  <si>
-    <t>18D1714-3</t>
-  </si>
-  <si>
-    <t>15Y1069-18</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>17Y1366-11</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>20L1722-15</t>
-  </si>
-  <si>
-    <t>18Y1547-6</t>
-  </si>
-  <si>
-    <t>22L1099-11</t>
-  </si>
-  <si>
-    <t>18L1260-11</t>
-  </si>
-  <si>
-    <t>15D1202-8</t>
-  </si>
-  <si>
-    <t>17L1315-10</t>
-  </si>
-  <si>
-    <t>16L1247-6</t>
-  </si>
-  <si>
-    <t>18D1501-2</t>
-  </si>
-  <si>
-    <t>16Y1542-9</t>
-  </si>
-  <si>
-    <t>18Y1735-6</t>
-  </si>
-  <si>
-    <t>16L1459-7</t>
-  </si>
-  <si>
-    <t>15L1800-5</t>
-  </si>
-  <si>
-    <t>18L1621-18</t>
-  </si>
-  <si>
-    <t>18D1074-4</t>
-  </si>
-  <si>
-    <t>15Y1169-3</t>
-  </si>
-  <si>
-    <t>16Y1377-3</t>
-  </si>
-  <si>
-    <t>18L1813-15</t>
-  </si>
-  <si>
-    <t>20L1665-14</t>
-  </si>
-  <si>
-    <t>16Y1064-16</t>
-  </si>
-  <si>
-    <t>17Y1475-19</t>
-  </si>
-  <si>
-    <t>19L1292-15</t>
-  </si>
-  <si>
-    <t>17Y1862-10</t>
-  </si>
-  <si>
-    <t>19L1250-18</t>
-  </si>
-  <si>
-    <t>17D1322-14</t>
-  </si>
-  <si>
-    <t>23L1286-4</t>
-  </si>
-  <si>
-    <t>21D1416-5</t>
-  </si>
-  <si>
-    <t>20L1580-5</t>
-  </si>
-  <si>
-    <t>22D1440-12</t>
-  </si>
-  <si>
-    <t>21Y1703-14</t>
-  </si>
-  <si>
-    <t>21L1512-9</t>
-  </si>
-  <si>
-    <t>22D1284-7</t>
-  </si>
-  <si>
-    <t>22Y1781-14</t>
-  </si>
-  <si>
-    <t>15Y1417-7</t>
-  </si>
-  <si>
-    <t>23L1910-17</t>
-  </si>
-  <si>
-    <t>19Y1696-9</t>
-  </si>
-  <si>
-    <t>16L1961-5</t>
-  </si>
-  <si>
-    <t>18D1565-10</t>
-  </si>
-  <si>
-    <t>16L1081-16</t>
-  </si>
-  <si>
-    <t>20L1966-4</t>
-  </si>
-  <si>
-    <t>19D1872-2</t>
-  </si>
-  <si>
-    <t>22Y1106-1</t>
-  </si>
-  <si>
-    <t>15D1239-8</t>
-  </si>
-  <si>
-    <t>20L1782-4</t>
-  </si>
-  <si>
-    <t>24L1547-2</t>
-  </si>
-  <si>
-    <t>18D1725-1</t>
-  </si>
-  <si>
-    <t>24D1947-13</t>
-  </si>
-  <si>
-    <t>15Y1986-16</t>
-  </si>
-  <si>
-    <t>21D1472-1</t>
-  </si>
-  <si>
-    <t>21Y1185-1</t>
-  </si>
-  <si>
-    <t>23D1122-4</t>
-  </si>
-  <si>
-    <t>19D1457-11</t>
-  </si>
-  <si>
-    <t>17L1441-17</t>
-  </si>
-  <si>
-    <t>16D1988-11</t>
-  </si>
-  <si>
-    <t>19Y1792-14</t>
-  </si>
-  <si>
-    <t>17D1288-6</t>
-  </si>
-  <si>
-    <t>20Y1171-6</t>
-  </si>
-  <si>
-    <t>第二次配種</t>
-  </si>
-  <si>
-    <t>空配種時間</t>
-  </si>
-  <si>
-    <t>空母豬耳號</t>
-  </si>
-  <si>
-    <t>空公豬耳號</t>
-  </si>
-  <si>
-    <t>空配種日期</t>
-  </si>
-  <si>
-    <t>18Y154766</t>
-  </si>
-  <si>
-    <t>無公豬資料</t>
-  </si>
-  <si>
-    <t>23D1081-16</t>
-  </si>
-  <si>
-    <t>公豬生日晚於配種日期</t>
-  </si>
-  <si>
-    <t>序號</t>
-  </si>
-  <si>
-    <t>品種</t>
-  </si>
-  <si>
-    <t>耳號</t>
-  </si>
-  <si>
-    <t>標記</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>父畜</t>
-  </si>
-  <si>
-    <t>母畜</t>
-  </si>
-  <si>
-    <t>登錄號</t>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
-    <t>狀態日期</t>
-  </si>
-  <si>
-    <t>狀態</t>
-  </si>
-  <si>
-    <t>標記日期</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>離場日期</t>
-  </si>
-  <si>
-    <t>離場原因</t>
   </si>
   <si>
     <t>欄1</t>
@@ -1025,12 +1029,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635F25D-E9A9-4A49-B6C3-EDF6A09A71EB}">
-  <dimension ref="A1:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902B1B6C-65D0-4E53-B4D5-B0FD98BF9241}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43299</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43485</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45025</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45213</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43077</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43326</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43483</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43672</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43861</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44049</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43542</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43758</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43944</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44128</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44318</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45412</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44318</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45107</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45297</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44517</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44951</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43075</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45122</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45304</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42625</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43635</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43824</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44009</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44066</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45009</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44205</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45941</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>46122</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45764</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44623</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44812</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E44">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45290</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E45">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45474</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43843</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E47">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42857</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43837</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E49">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42933</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E50">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44291</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E51">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44293</v>
+      </c>
+      <c r="E53">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="E59">
+        <v>1546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635F25D-E9A9-4A49-B6C3-EDF6A09A71EB}">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1040,12 +2048,12 @@
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,57 +2061,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>43299</v>
@@ -1112,33 +2114,27 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>182</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>182</v>
-      </c>
-      <c r="P2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>43485</v>
@@ -1147,33 +2143,27 @@
         <v>0.5</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>368</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>368</v>
-      </c>
-      <c r="P3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>44215</v>
@@ -1182,33 +2172,27 @@
         <v>0.5</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>188</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>188</v>
-      </c>
-      <c r="P4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
         <v>45025</v>
@@ -1217,33 +2201,27 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>190</v>
       </c>
       <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>190</v>
-      </c>
-      <c r="P5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
         <v>45213</v>
@@ -1252,33 +2230,27 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>378</v>
+      </c>
+      <c r="N6">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>378</v>
-      </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1">
         <v>43077</v>
@@ -1287,33 +2259,27 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>185</v>
       </c>
       <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>185</v>
-      </c>
-      <c r="P7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>43326</v>
@@ -1322,33 +2288,27 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>189</v>
       </c>
       <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <v>189</v>
-      </c>
-      <c r="P8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>43483</v>
@@ -1357,33 +2317,27 @@
         <v>0.5</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>188</v>
       </c>
       <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>188</v>
-      </c>
-      <c r="P9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1">
         <v>43672</v>
@@ -1392,33 +2346,27 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>377</v>
       </c>
       <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>377</v>
-      </c>
-      <c r="P10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>43861</v>
@@ -1427,33 +2375,27 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>566</v>
       </c>
       <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
-        <v>566</v>
-      </c>
-      <c r="P11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>44049</v>
@@ -1462,33 +2404,27 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>754</v>
       </c>
       <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>754</v>
-      </c>
-      <c r="P12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>42736</v>
@@ -1497,33 +2433,27 @@
         <v>0.5</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>181</v>
       </c>
       <c r="N13">
-        <v>9</v>
-      </c>
-      <c r="O13">
-        <v>181</v>
-      </c>
-      <c r="P13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>43542</v>
@@ -1532,33 +2462,27 @@
         <v>0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>180</v>
       </c>
       <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>180</v>
-      </c>
-      <c r="P14">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>44088</v>
@@ -1567,33 +2491,27 @@
         <v>0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>187</v>
       </c>
       <c r="N15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="O15">
-        <v>187</v>
-      </c>
-      <c r="P15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>44269</v>
@@ -1602,33 +2520,27 @@
         <v>0.5</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>368</v>
       </c>
       <c r="N16">
-        <v>13</v>
-      </c>
-      <c r="O16">
-        <v>368</v>
-      </c>
-      <c r="P16">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>43758</v>
@@ -1637,33 +2549,27 @@
         <v>0.5</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>187</v>
       </c>
       <c r="N17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="O17">
-        <v>187</v>
-      </c>
-      <c r="P17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>43944</v>
@@ -1672,33 +2578,27 @@
         <v>0.5</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>373</v>
       </c>
       <c r="N18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>14</v>
-      </c>
-      <c r="O18">
-        <v>373</v>
-      </c>
-      <c r="P18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>41</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <v>44128</v>
@@ -1707,33 +2607,27 @@
         <v>0.5</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>557</v>
       </c>
       <c r="N19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
         <v>14</v>
-      </c>
-      <c r="O19">
-        <v>557</v>
-      </c>
-      <c r="P19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>41</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
         <v>44318</v>
@@ -1742,33 +2636,27 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>747</v>
       </c>
       <c r="N20">
-        <v>14</v>
-      </c>
-      <c r="O20">
-        <v>747</v>
-      </c>
-      <c r="P20">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
         <v>45412</v>
@@ -1777,33 +2665,27 @@
         <v>0.5</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>181</v>
       </c>
       <c r="N21">
-        <v>15</v>
-      </c>
-      <c r="O21">
-        <v>181</v>
-      </c>
-      <c r="P21">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>44136</v>
@@ -1812,33 +2694,27 @@
         <v>0.5</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>188</v>
       </c>
       <c r="N22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="O22">
-        <v>188</v>
-      </c>
-      <c r="P22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>44318</v>
@@ -1847,33 +2723,27 @@
         <v>0.5</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>370</v>
       </c>
       <c r="N23">
-        <v>16</v>
-      </c>
-      <c r="O23">
-        <v>370</v>
-      </c>
-      <c r="P23">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1">
         <v>45107</v>
@@ -1882,33 +2752,27 @@
         <v>0.5</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>187</v>
       </c>
       <c r="N24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="O24">
-        <v>187</v>
-      </c>
-      <c r="P24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
         <v>45297</v>
@@ -1917,33 +2781,27 @@
         <v>0.5</v>
       </c>
       <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25">
+        <v>17</v>
+      </c>
+      <c r="M25">
+        <v>377</v>
+      </c>
+      <c r="N25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25">
-        <v>17</v>
-      </c>
-      <c r="O25">
-        <v>377</v>
-      </c>
-      <c r="P25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
       </c>
       <c r="D26" s="1">
         <v>44517</v>
@@ -1952,33 +2810,27 @@
         <v>0.5</v>
       </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26">
         <v>18</v>
       </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
+      <c r="M26">
+        <v>187</v>
       </c>
       <c r="N26">
-        <v>18</v>
-      </c>
-      <c r="O26">
-        <v>187</v>
-      </c>
-      <c r="P26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>44951</v>
@@ -1987,33 +2839,27 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>183</v>
       </c>
       <c r="N27">
         <v>19</v>
       </c>
-      <c r="O27">
-        <v>183</v>
-      </c>
-      <c r="P27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>42950</v>
@@ -2022,33 +2868,27 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L28">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>180</v>
       </c>
       <c r="N28">
-        <v>21</v>
-      </c>
-      <c r="O28">
-        <v>180</v>
-      </c>
-      <c r="P28">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
       </c>
       <c r="D29" s="1">
         <v>43075</v>
@@ -2057,33 +2897,27 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>367</v>
+      </c>
+      <c r="N29">
         <v>18</v>
       </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29">
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="O29">
-        <v>367</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1">
         <v>45122</v>
@@ -2092,33 +2926,27 @@
         <v>0.5</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>180</v>
       </c>
       <c r="N30">
-        <v>22</v>
-      </c>
-      <c r="O30">
-        <v>180</v>
-      </c>
-      <c r="P30">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1">
         <v>45304</v>
@@ -2127,33 +2955,27 @@
         <v>0.5</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>362</v>
       </c>
       <c r="N31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="O31">
-        <v>362</v>
-      </c>
-      <c r="P31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
         <v>42625</v>
@@ -2162,33 +2984,27 @@
         <v>0.5</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>188</v>
       </c>
       <c r="N32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="O32">
-        <v>188</v>
-      </c>
-      <c r="P32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
         <v>43635</v>
@@ -2197,33 +3013,27 @@
         <v>0.5</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L33">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>186</v>
       </c>
       <c r="N33">
-        <v>24</v>
-      </c>
-      <c r="O33">
-        <v>186</v>
-      </c>
-      <c r="P33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
         <v>43824</v>
@@ -2232,33 +3042,27 @@
         <v>0.5</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>375</v>
       </c>
       <c r="N34">
-        <v>24</v>
-      </c>
-      <c r="O34">
-        <v>375</v>
-      </c>
-      <c r="P34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
         <v>44009</v>
@@ -2267,33 +3071,27 @@
         <v>0.5</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>560</v>
       </c>
       <c r="N35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="O35">
-        <v>560</v>
-      </c>
-      <c r="P35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1">
         <v>44066</v>
@@ -2302,33 +3100,27 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>181</v>
       </c>
       <c r="N36">
-        <v>26</v>
-      </c>
-      <c r="O36">
-        <v>181</v>
-      </c>
-      <c r="P36">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1">
         <v>45009</v>
@@ -2337,33 +3129,27 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>181</v>
       </c>
       <c r="N37">
-        <v>27</v>
-      </c>
-      <c r="O37">
-        <v>181</v>
-      </c>
-      <c r="P37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>44205</v>
@@ -2372,33 +3158,27 @@
         <v>0.5</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>184</v>
       </c>
       <c r="N38">
-        <v>29</v>
-      </c>
-      <c r="O38">
-        <v>184</v>
-      </c>
-      <c r="P38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1">
         <v>45753</v>
@@ -2407,33 +3187,27 @@
         <v>0.5</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>182</v>
       </c>
       <c r="N39">
-        <v>30</v>
-      </c>
-      <c r="O39">
-        <v>182</v>
-      </c>
-      <c r="P39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1">
         <v>45941</v>
@@ -2442,33 +3216,27 @@
         <v>0.5</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>370</v>
       </c>
       <c r="N40">
-        <v>30</v>
-      </c>
-      <c r="O40">
-        <v>370</v>
-      </c>
-      <c r="P40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1">
         <v>46122</v>
@@ -2477,33 +3245,27 @@
         <v>0.5</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>551</v>
       </c>
       <c r="N41">
-        <v>30</v>
-      </c>
-      <c r="O41">
-        <v>551</v>
-      </c>
-      <c r="P41">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1">
         <v>45764</v>
@@ -2512,33 +3274,27 @@
         <v>0.5</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>182</v>
       </c>
       <c r="N42">
-        <v>32</v>
-      </c>
-      <c r="O42">
-        <v>182</v>
-      </c>
-      <c r="P42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1">
         <v>44623</v>
@@ -2547,33 +3303,27 @@
         <v>0.5</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L43">
+        <v>33</v>
+      </c>
+      <c r="M43">
+        <v>189</v>
       </c>
       <c r="N43">
-        <v>33</v>
-      </c>
-      <c r="O43">
-        <v>189</v>
-      </c>
-      <c r="P43">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1">
         <v>44812</v>
@@ -2582,33 +3332,27 @@
         <v>0.5</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>378</v>
       </c>
       <c r="N44">
-        <v>33</v>
-      </c>
-      <c r="O44">
-        <v>378</v>
-      </c>
-      <c r="P44">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1">
         <v>45290</v>
@@ -2617,33 +3361,27 @@
         <v>0.5</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>34</v>
+      </c>
+      <c r="M45">
+        <v>182</v>
       </c>
       <c r="N45">
-        <v>34</v>
-      </c>
-      <c r="O45">
-        <v>182</v>
-      </c>
-      <c r="P45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1">
         <v>45474</v>
@@ -2652,33 +3390,27 @@
         <v>0.5</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L46">
+        <v>34</v>
+      </c>
+      <c r="M46">
+        <v>366</v>
       </c>
       <c r="N46">
         <v>34</v>
       </c>
-      <c r="O46">
-        <v>366</v>
-      </c>
-      <c r="P46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1">
         <v>43843</v>
@@ -2687,33 +3419,27 @@
         <v>0.5</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>181</v>
       </c>
       <c r="N47">
-        <v>35</v>
-      </c>
-      <c r="O47">
-        <v>181</v>
-      </c>
-      <c r="P47">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <v>42857</v>
@@ -2722,33 +3448,27 @@
         <v>0.5</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L48">
+        <v>39</v>
+      </c>
+      <c r="M48">
+        <v>189</v>
       </c>
       <c r="N48">
-        <v>39</v>
-      </c>
-      <c r="O48">
-        <v>189</v>
-      </c>
-      <c r="P48">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1">
         <v>43837</v>
@@ -2757,33 +3477,27 @@
         <v>0.5</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L49">
+        <v>43</v>
+      </c>
+      <c r="M49">
+        <v>182</v>
       </c>
       <c r="N49">
-        <v>43</v>
-      </c>
-      <c r="O49">
-        <v>182</v>
-      </c>
-      <c r="P49">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1">
         <v>42933</v>
@@ -2792,33 +3506,27 @@
         <v>0.5</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>190</v>
       </c>
       <c r="N50">
-        <v>48</v>
-      </c>
-      <c r="O50">
-        <v>190</v>
-      </c>
-      <c r="P50">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>44291</v>
@@ -2827,33 +3535,27 @@
         <v>0.5</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>185</v>
       </c>
       <c r="N51">
-        <v>50</v>
-      </c>
-      <c r="O51">
-        <v>185</v>
-      </c>
-      <c r="P51">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1">
         <v>44292</v>
@@ -2862,68 +3564,56 @@
         <v>0.5</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
         <v>77</v>
       </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
-        <v>18</v>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>185</v>
       </c>
       <c r="N52">
-        <v>50</v>
-      </c>
-      <c r="O52">
-        <v>185</v>
-      </c>
-      <c r="P52">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D53" s="1">
         <v>44293</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
       </c>
-      <c r="I53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>185</v>
       </c>
       <c r="N53">
-        <v>50</v>
-      </c>
-      <c r="O53">
-        <v>185</v>
-      </c>
-      <c r="P53">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:14">
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1">
         <v>44292</v>
@@ -2932,30 +3622,24 @@
         <v>0.5</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
         <v>79</v>
       </c>
-      <c r="I54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" t="s">
-        <v>18</v>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>185</v>
       </c>
       <c r="N54">
-        <v>50</v>
-      </c>
-      <c r="O54">
-        <v>185</v>
-      </c>
-      <c r="P54">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2967,66 +3651,54 @@
         <v>0.5</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
         <v>80</v>
       </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>185</v>
       </c>
       <c r="N55">
-        <v>50</v>
-      </c>
-      <c r="O55">
-        <v>185</v>
-      </c>
-      <c r="P55">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D56" s="1"/>
       <c r="F56" s="2">
         <v>0.5</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
         <v>81</v>
       </c>
-      <c r="I56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" t="s">
-        <v>18</v>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>185</v>
       </c>
       <c r="N56">
-        <v>50</v>
-      </c>
-      <c r="O56">
-        <v>185</v>
-      </c>
-      <c r="P56">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3041,30 +3713,24 @@
         <v>0.5</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s">
         <v>83</v>
       </c>
-      <c r="I57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" t="s">
-        <v>18</v>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>185</v>
       </c>
       <c r="N57">
-        <v>50</v>
-      </c>
-      <c r="O57">
-        <v>185</v>
-      </c>
-      <c r="P57">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3079,40 +3745,34 @@
         <v>0.5</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
         <v>85</v>
       </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s">
-        <v>18</v>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>185</v>
       </c>
       <c r="N58">
-        <v>50</v>
-      </c>
-      <c r="O58">
-        <v>185</v>
-      </c>
-      <c r="P58">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O1048568">
-    <sortCondition ref="O2:O1048568"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M1048568">
+    <sortCondition ref="M2:M1048568"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3168,18 +3828,18 @@
         <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>44832</v>
@@ -3188,7 +3848,7 @@
         <v>220815</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3199,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1">
         <v>45248</v>
@@ -3211,7 +3871,7 @@
         <v>114463</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -3222,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1">
         <v>43117</v>
@@ -3234,7 +3894,7 @@
         <v>571977</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -3245,19 +3905,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1">
         <v>44774</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -3268,19 +3928,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
         <v>45192</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -3291,10 +3951,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1">
         <v>42478</v>
@@ -3303,7 +3963,7 @@
         <v>622282</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -3314,19 +3974,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1">
         <v>42972</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -3337,10 +3997,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1">
         <v>42171</v>
@@ -3349,7 +4009,7 @@
         <v>546867</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -3360,19 +4020,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1">
         <v>43264</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -3383,19 +4043,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1">
         <v>45151</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -3406,10 +4066,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1">
         <v>44494</v>
@@ -3418,7 +4078,7 @@
         <v>695593</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -3429,10 +4089,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1">
         <v>44193</v>
@@ -3441,7 +4101,7 @@
         <v>630400</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3452,10 +4112,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1">
         <v>42177</v>
@@ -3464,7 +4124,7 @@
         <v>590433</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -3475,10 +4135,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1">
         <v>44338</v>
@@ -3487,7 +4147,7 @@
         <v>246174</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -3498,19 +4158,19 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
         <v>42646</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3521,19 +4181,19 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>42378</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -3544,10 +4204,10 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1">
         <v>43824</v>
@@ -3556,7 +4216,7 @@
         <v>348752</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -3567,10 +4227,10 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1">
         <v>42152</v>
@@ -3579,7 +4239,7 @@
         <v>984299</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -3590,19 +4250,19 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1">
         <v>44746</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -3613,10 +4273,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="1">
         <v>42497</v>
@@ -3625,7 +4285,7 @@
         <v>188631</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -3636,10 +4296,10 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>43655</v>
@@ -3648,7 +4308,7 @@
         <v>190895</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -3659,10 +4319,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1">
         <v>44250</v>
@@ -3671,7 +4331,7 @@
         <v>454447</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -3682,10 +4342,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
         <v>42692</v>
@@ -3694,7 +4354,7 @@
         <v>822190</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -3705,10 +4365,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="1">
         <v>42243</v>
@@ -3717,7 +4377,7 @@
         <v>178181</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -3728,10 +4388,10 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="1">
         <v>42329</v>
@@ -3740,7 +4400,7 @@
         <v>706220</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -3751,19 +4411,19 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1">
         <v>45629</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3774,10 +4434,10 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="1">
         <v>42025</v>
@@ -3786,7 +4446,7 @@
         <v>859416</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3797,19 +4457,19 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>43233</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3820,19 +4480,19 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>43078</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -3843,19 +4503,19 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1">
         <v>42914</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3866,10 +4526,10 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" s="1">
         <v>42579</v>
@@ -3878,7 +4538,7 @@
         <v>380112</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -3889,10 +4549,10 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1">
         <v>44054</v>
@@ -3901,7 +4561,7 @@
         <v>696875</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -3912,19 +4572,19 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1">
         <v>42668</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3935,10 +4595,10 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1">
         <v>42875</v>
@@ -3947,7 +4607,7 @@
         <v>193926</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3958,19 +4618,19 @@
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1">
         <v>44359</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3981,10 +4641,10 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1">
         <v>42243</v>
@@ -3993,7 +4653,7 @@
         <v>425614</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4004,19 +4664,19 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="1">
         <v>45307</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -4027,10 +4687,10 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E39" s="1">
         <v>44068</v>
@@ -4039,7 +4699,7 @@
         <v>977245</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -4050,10 +4710,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1">
         <v>44309</v>
@@ -4062,7 +4722,7 @@
         <v>216083</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -4073,19 +4733,19 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1">
         <v>43412</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -4096,10 +4756,10 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1">
         <v>43541</v>
@@ -4108,7 +4768,7 @@
         <v>383030</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -4119,19 +4779,19 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1">
         <v>42989</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4142,19 +4802,19 @@
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1">
         <v>43436</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -4165,10 +4825,10 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E45" s="1">
         <v>44391</v>
@@ -4177,7 +4837,7 @@
         <v>439917</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -4188,10 +4848,10 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E46" s="1">
         <v>45176</v>
@@ -4200,7 +4860,7 @@
         <v>748742</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4211,19 +4871,19 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1">
         <v>42849</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4234,19 +4894,19 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1">
         <v>43267</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4257,10 +4917,10 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" s="1">
         <v>44364</v>
@@ -4269,7 +4929,7 @@
         <v>367015</v>
       </c>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4280,19 +4940,19 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E50" s="1">
         <v>42936</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4303,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51" s="1">
         <v>43117</v>
@@ -4315,7 +4975,7 @@
         <v>394947</v>
       </c>
       <c r="I51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -4326,19 +4986,19 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="1">
         <v>44027</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -4349,19 +5009,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E53" s="1">
         <v>44835</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -4372,10 +5032,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E54" s="1">
         <v>43307</v>
@@ -4384,7 +5044,7 @@
         <v>907904</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -4395,19 +5055,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E55" s="1">
         <v>42892</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -4418,10 +5078,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" s="1">
         <v>44100</v>
@@ -4430,7 +5090,7 @@
         <v>175887</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -4441,10 +5101,10 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E57" s="1">
         <v>43137</v>
@@ -4453,7 +5113,7 @@
         <v>763857</v>
       </c>
       <c r="I57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -4464,10 +5124,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E58" s="1">
         <v>43295</v>
@@ -4476,7 +5136,7 @@
         <v>117135</v>
       </c>
       <c r="I58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -4487,10 +5147,10 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E59" s="1">
         <v>42189</v>
@@ -4499,7 +5159,7 @@
         <v>168284</v>
       </c>
       <c r="I59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -4510,10 +5170,10 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1">
         <v>43362</v>
@@ -4522,7 +5182,7 @@
         <v>926512</v>
       </c>
       <c r="I60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -4533,19 +5193,19 @@
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E61" s="1">
         <v>44003</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M61">
         <v>2</v>
@@ -4556,10 +5216,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E62" s="1">
         <v>45474</v>
@@ -4568,7 +5228,7 @@
         <v>886097</v>
       </c>
       <c r="I62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -4579,19 +5239,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E63" s="1">
         <v>43901</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -4602,10 +5262,10 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E64" s="1">
         <v>43571</v>
@@ -4614,7 +5274,7 @@
         <v>686542</v>
       </c>
       <c r="I64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M64">
         <v>2</v>
@@ -4625,19 +5285,19 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E65" s="1">
         <v>45231</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -4648,10 +5308,10 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E66" s="1">
         <v>43948</v>
@@ -4660,7 +5320,7 @@
         <v>262269</v>
       </c>
       <c r="I66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -4671,19 +5331,19 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" s="1">
         <v>44920</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -4694,10 +5354,10 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E68" s="1">
         <v>44330</v>
@@ -4706,7 +5366,7 @@
         <v>849556</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -4717,19 +5377,19 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E69" s="1">
         <v>44768</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -4740,19 +5400,19 @@
         <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E70" s="1">
         <v>42160</v>
       </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -4763,19 +5423,19 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E71" s="1">
         <v>42039</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M71">
         <v>2</v>
@@ -4786,19 +5446,19 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E72" s="1">
         <v>44942</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -4809,19 +5469,19 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E73" s="1">
         <v>42437</v>
       </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M73">
         <v>2</v>
@@ -4832,10 +5492,10 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E74" s="1">
         <v>43449</v>
@@ -4844,7 +5504,7 @@
         <v>456692</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M74">
         <v>2</v>
@@ -4855,10 +5515,10 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" s="1">
         <v>42558</v>
@@ -4867,7 +5527,7 @@
         <v>832744</v>
       </c>
       <c r="I75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M75">
         <v>2</v>
@@ -4878,10 +5538,10 @@
         <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1">
         <v>43885</v>
@@ -4890,7 +5550,7 @@
         <v>519896</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -4901,19 +5561,19 @@
         <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1">
         <v>44828</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M77">
         <v>2</v>
@@ -4924,10 +5584,10 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E78" s="1">
         <v>43459</v>
@@ -4936,7 +5596,7 @@
         <v>123392</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -4947,10 +5607,10 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E79" s="1">
         <v>44021</v>
@@ -4959,7 +5619,7 @@
         <v>395889</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -4970,10 +5630,10 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1">
         <v>45571</v>
@@ -4982,7 +5642,7 @@
         <v>144303</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M80">
         <v>2</v>
@@ -4993,10 +5653,10 @@
         <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E81" s="1">
         <v>43014</v>
@@ -5005,7 +5665,7 @@
         <v>202198</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M81">
         <v>2</v>
@@ -5016,10 +5676,10 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E82" s="1">
         <v>45582</v>
@@ -5028,7 +5688,7 @@
         <v>473939</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -5039,19 +5699,19 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1">
         <v>44434</v>
       </c>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M83">
         <v>2</v>
@@ -5062,10 +5722,10 @@
         <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" s="1">
         <v>45108</v>
@@ -5074,7 +5734,7 @@
         <v>227045</v>
       </c>
       <c r="I84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M84">
         <v>2</v>
@@ -5085,19 +5745,19 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E85" s="1">
         <v>43662</v>
       </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M85">
         <v>2</v>
@@ -5108,19 +5768,19 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E86" s="1">
         <v>44929</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M86">
         <v>2</v>
@@ -5131,10 +5791,10 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1">
         <v>44181</v>
@@ -5143,7 +5803,7 @@
         <v>486842</v>
       </c>
       <c r="I87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -5154,19 +5814,19 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E88" s="1">
         <v>44290</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -5177,19 +5837,19 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E89" s="1">
         <v>42668</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M89">
         <v>2</v>
@@ -5200,10 +5860,10 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E90" s="1">
         <v>43103</v>
@@ -5212,7 +5872,7 @@
         <v>872026</v>
       </c>
       <c r="I90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M90">
         <v>2</v>
@@ -5223,10 +5883,10 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E91" s="1">
         <v>44685</v>
@@ -5235,7 +5895,7 @@
         <v>747829</v>
       </c>
       <c r="I91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -5246,10 +5906,10 @@
         <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E92" s="1">
         <v>42555</v>
@@ -5258,7 +5918,7 @@
         <v>560542</v>
       </c>
       <c r="I92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -5269,10 +5929,10 @@
         <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E93" s="1">
         <v>43655</v>
@@ -5281,7 +5941,7 @@
         <v>732577</v>
       </c>
       <c r="I93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M93">
         <v>2</v>
@@ -5292,19 +5952,19 @@
         <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E94" s="1">
         <v>42202</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M94">
         <v>2</v>
@@ -5315,10 +5975,10 @@
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E95" s="1">
         <v>42849</v>
@@ -5327,7 +5987,7 @@
         <v>271438</v>
       </c>
       <c r="I95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -5338,10 +5998,10 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E96" s="1">
         <v>44156</v>
@@ -5350,7 +6010,7 @@
         <v>362680</v>
       </c>
       <c r="I96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M96">
         <v>2</v>
@@ -5361,19 +6021,19 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1">
         <v>43319</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -5384,10 +6044,10 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E98" s="1">
         <v>42743</v>
@@ -5396,7 +6056,7 @@
         <v>499445</v>
       </c>
       <c r="I98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M98">
         <v>2</v>
@@ -5407,10 +6067,10 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E99" s="1">
         <v>44938</v>
@@ -5419,7 +6079,7 @@
         <v>355767</v>
       </c>
       <c r="I99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M99">
         <v>2</v>
@@ -5430,19 +6090,19 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E100" s="1">
         <v>44106</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M100">
         <v>2</v>
@@ -5453,10 +6113,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E101" s="1">
         <v>42784</v>
@@ -5465,7 +6125,7 @@
         <v>820971</v>
       </c>
       <c r="I101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M101">
         <v>2</v>
